--- a/kelompok nomer 8 4 dari belakang.xlsx
+++ b/kelompok nomer 8 4 dari belakang.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="8 4 fb 1" sheetId="1" state="visible" r:id="rId2"/>
@@ -365,9 +365,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -449,7 +450,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -466,21 +467,82 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF00A933"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF00A933"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A94" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1:F100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -2162,11 +2224,11 @@
   </sheetPr>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="F1:F100 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -3839,15 +3901,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF00A933"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1:F100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -5520,15 +5583,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF00A933"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1:F100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -7205,11 +7269,11 @@
   </sheetPr>
   <dimension ref="A1:G100"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1:F100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -8887,10 +8951,10 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="F1:F100 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -10568,10 +10632,10 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="F1:F100 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -12249,10 +12313,10 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="F1:F100 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -13930,10 +13994,10 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="F1:F100 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
@@ -15611,10 +15675,10 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="1" sqref="F1:F100 D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.2"/>
